--- a/Data_Exploration.xlsx
+++ b/Data_Exploration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\arl-eegmodels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4E031A-016D-4904-955C-A2ABFC9C320E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3940746-F5CF-4C7C-9A66-AE23187355CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCCD0253-813A-4B02-B2E8-8C95889D9E12}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Position</t>
   </si>
@@ -68,6 +68,24 @@
   <si>
     <t>Is Overlap Trial</t>
   </si>
+  <si>
+    <t>Start trial at</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>epoch data at</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>time w valid data</t>
+  </si>
+  <si>
+    <t>time w invalid data</t>
+  </si>
 </sst>
 </file>
 
@@ -95,12 +113,18 @@
       <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,12 +139,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC8BF32-1500-4B10-9E30-FFCA1DE7424E}">
-  <dimension ref="A1:N606"/>
+  <dimension ref="A1:Q606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -461,21 +489,22 @@
     <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" s="2"/>
       <c r="M2">
         <f>SUM(M4:M606)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,7 +545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -559,7 +588,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -602,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>29684</v>
       </c>
@@ -645,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>29684</v>
       </c>
@@ -688,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>49956</v>
       </c>
@@ -731,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>49956</v>
       </c>
@@ -774,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>91519</v>
       </c>
@@ -821,93 +850,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
+    <row r="11" spans="1:17" s="4" customFormat="1">
+      <c r="A11" s="3">
         <v>91869</v>
       </c>
-      <c r="B11" s="1">
-        <v>1875</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="3">
+        <v>1875</v>
+      </c>
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>93744</v>
       </c>
-      <c r="D11" s="1">
-        <v>768</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="3">
+        <v>768</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>367.476</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
         <v>374.976</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="4" t="str">
         <f t="shared" si="4"/>
         <v>New Trial</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
+      <c r="O11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1">
+      <c r="A12" s="3">
         <v>92369</v>
       </c>
-      <c r="B12" s="1">
-        <v>313</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="3">
+        <v>313</v>
+      </c>
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>92682</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>772</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>369.476</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
         <v>370.72800000000001</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <f t="shared" si="3"/>
         <v>1.252</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Tongue</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M12" t="str">
+      <c r="M12" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>93872</v>
       </c>
@@ -949,8 +996,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>94372</v>
       </c>
@@ -992,8 +1048,18 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <f>1.252 - 0.5</f>
+        <v>0.752</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>95790</v>
       </c>
@@ -1035,8 +1101,18 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15">
+        <f>2 - P14</f>
+        <v>1.248</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>96290</v>
       </c>
